--- a/BOM_JLCPCB.xlsx
+++ b/BOM_JLCPCB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -89,13 +89,16 @@
     <t xml:space="preserve">0603</t>
   </si>
   <si>
+    <t xml:space="preserve"> C19702</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.1uF ceramic capacitor  </t>
   </si>
   <si>
     <t xml:space="preserve">C2, C3</t>
   </si>
   <si>
-    <t xml:space="preserve">C14663     </t>
+    <t xml:space="preserve">C14663</t>
   </si>
   <si>
     <t xml:space="preserve">100uF ceramic capacitor  </t>
@@ -107,112 +110,121 @@
     <t xml:space="preserve">0805</t>
   </si>
   <si>
+    <t xml:space="preserve"> C141660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Pin Connector (BOOMELE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1 ,J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD,P=1mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C145956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22uH Inductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C395020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPN Bipolar Transistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C444723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Channel MOSFET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2, Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C78284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistor, 47k,  1%  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistor, 27k,  1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C22967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistor, 10k , 1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3, R4, R5, R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Potentiometers 5k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC-70-6(SOT-363)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C145561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC-DC Converters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C236769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op Amp LMV321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7972</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED</t>
   </si>
   <si>
     <t xml:space="preserve">D1</t>
   </si>
   <si>
-    <t xml:space="preserve">4-Pin Connector (BOOMELE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1 ,J2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD,P=1mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C145956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22uH Inductor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C275350</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPN Bipolar Transistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C444723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-Channel MOSFET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2, Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C78284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resistor, 46.3k,  1%  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resistor, 24.9k,  1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C403105 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">resistor, 10k , 1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3, R4, R5, R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Potentiometers 5k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC-70-6(SOT-363)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C145561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC-DC Converters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C236769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Op Amp LMV321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-23-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7972</t>
+    <t xml:space="preserve"> C375444</t>
   </si>
 </sst>
 </file>
@@ -223,7 +235,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -277,12 +289,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -345,7 +351,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -372,10 +378,6 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -455,18 +457,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.89"/>
   </cols>
   <sheetData>
@@ -497,280 +499,248 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E2" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="G2" s="0"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>2</v>
       </c>
+      <c r="G3" s="0"/>
     </row>
     <row r="4" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
+      <c r="A4" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="G4" s="0"/>
     </row>
     <row r="5" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>14</v>
+      <c r="A5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="0"/>
+    </row>
+    <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0"/>
+    </row>
+    <row r="7" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0"/>
+    </row>
+    <row r="8" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="0"/>
+    </row>
+    <row r="9" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G9" s="0"/>
     </row>
     <row r="10" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>30</v>
+      <c r="A10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="G10" s="0"/>
     </row>
     <row r="11" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>33</v>
+      <c r="A11" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G11" s="0"/>
     </row>
     <row r="12" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>36</v>
+      <c r="A12" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0"/>
+    </row>
+    <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0"/>
+    </row>
+    <row r="14" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0"/>
+    </row>
+    <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="G15" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/BOM_JLCPCB.xlsx
+++ b/BOM_JLCPCB.xlsx
@@ -460,7 +460,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/BOM_JLCPCB.xlsx
+++ b/BOM_JLCPCB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -86,142 +86,145 @@
     <t xml:space="preserve">C1</t>
   </si>
   <si>
+    <t xml:space="preserve">0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1uF ceramic capacitor  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2, C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100uF ceramic capacitor  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0805</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C141660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Pin Connector (BOOMELE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J1 ,J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD,P=1mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C145956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22uH Inductor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C395020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPN Bipolar Transistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C444723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Channel MOSFET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2, Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C78284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistor, 47k,  1%  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25792 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistor, 27k,  1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25771 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resistor, 10k , 1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3, R4, R5, R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25744 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Potentiometers 5k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC-70-6(SOT-363)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C145561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC-DC Converters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C236769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Op Amp LMV321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
     <t xml:space="preserve">0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C19702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1uF ceramic capacitor  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2, C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C14663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100uF ceramic capacitor  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C141660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-Pin Connector (BOOMELE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J1 ,J2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD,P=1mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C145956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22uH Inductor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C395020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPN Bipolar Transistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C444723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-Channel MOSFET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2, Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C78284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resistor, 47k,  1%  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resistor, 27k,  1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C22967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resistor, 10k , 1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3, R4, R5, R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Potentiometers 5k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SC-70-6(SOT-363)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C145561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC-DC Converters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C236769</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Op Amp LMV321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-23-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
   </si>
   <si>
     <t xml:space="preserve"> C375444</t>
@@ -460,7 +463,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -731,10 +734,10 @@
         <v>52</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E15" s="4" t="n">
         <v>1</v>
